--- a/Mifos Automation Excels/Loan Product/2440-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2440-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DATE-VAR-INST-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>productname</t>
   </si>
@@ -23,42 +23,6 @@
     <t>shortname</t>
   </si>
   <si>
-    <t>fundsource</t>
-  </si>
-  <si>
-    <t>loanprotfolio</t>
-  </si>
-  <si>
-    <t>overpaymentliability</t>
-  </si>
-  <si>
-    <t>loseswrittenoff</t>
-  </si>
-  <si>
-    <t>incomefromrecoveryrepayments</t>
-  </si>
-  <si>
-    <t>incomefromfees</t>
-  </si>
-  <si>
-    <t>incomefrompenalties</t>
-  </si>
-  <si>
-    <t>incomefrominterest</t>
-  </si>
-  <si>
-    <t>feesreceivable</t>
-  </si>
-  <si>
-    <t>transferinsuspense</t>
-  </si>
-  <si>
-    <t>penaltiesreceivable</t>
-  </si>
-  <si>
-    <t>interestreceivable</t>
-  </si>
-  <si>
     <t>principaldefault</t>
   </si>
   <si>
@@ -131,42 +95,6 @@
     <t>Per month</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan portfolio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalties Receivable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer in Suspence </t>
-  </si>
-  <si>
-    <t>Fees Receivable</t>
-  </si>
-  <si>
-    <t>Income from interest</t>
-  </si>
-  <si>
-    <t>Income from penalties</t>
-  </si>
-  <si>
-    <t>Income from fees</t>
-  </si>
-  <si>
-    <t>Income from recovery repayments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losses Writtenoff </t>
-  </si>
-  <si>
-    <t>Overpayment Liability</t>
-  </si>
-  <si>
     <t>numberofrepaymentsdefault</t>
   </si>
   <si>
@@ -180,9 +108,6 @@
   </si>
   <si>
     <t>maximumtranchecount</t>
-  </si>
-  <si>
-    <t>accrualperiodic</t>
   </si>
   <si>
     <t>verifyloanproduct</t>
@@ -594,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +549,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11">
         <v>2440</v>
@@ -632,15 +557,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -648,7 +573,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -656,7 +581,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>10000</v>
@@ -664,7 +589,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
@@ -672,7 +597,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -680,15 +605,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -696,79 +621,79 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -776,7 +701,7 @@
     </row>
     <row r="22" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>365</v>
@@ -784,55 +709,55 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -840,114 +765,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -972,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
